--- a/Packages/cn.etetet.wow/Luban/Datas/NumericType.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Datas/NumericType.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12990"/>
+    <workbookView windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="NumericType" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -34,10 +34,7 @@
     <t>MaxNumericType</t>
   </si>
   <si>
-    <t>AffectNumericType</t>
-  </si>
-  <si>
-    <t>AffectValue</t>
+    <t>AffectNumeric</t>
   </si>
   <si>
     <t>##type</t>
@@ -49,7 +46,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>(list#sep=;),int</t>
+    <t>map,int,long</t>
   </si>
   <si>
     <t>##group</t>
@@ -80,9 +77,6 @@
   </si>
   <si>
     <t>影响的属性id</t>
-  </si>
-  <si>
-    <t>影响的属性数值</t>
   </si>
   <si>
     <t>NoNotice = 0,
@@ -114,9 +108,6 @@
     <t>会影响对应的属性数值</t>
   </si>
   <si>
-    <t>1000代表1点属性</t>
-  </si>
-  <si>
     <t>Speed</t>
   </si>
   <si>
@@ -176,10 +167,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -210,17 +201,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,13 +291,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -246,108 +330,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,13 +359,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,169 +521,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,30 +550,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -616,6 +583,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -631,11 +616,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,25 +650,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -677,133 +668,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1141,10 +1132,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>
@@ -1156,10 +1147,11 @@
     <col min="5" max="5" width="20.7522123893805" customWidth="1"/>
     <col min="6" max="6" width="20.8761061946903" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="10" width="20.8761061946903" customWidth="1"/>
+    <col min="8" max="8" width="20.8761061946903" customWidth="1"/>
+    <col min="9" max="9" width="31.8053097345133" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:10">
+    <row r="1" customFormat="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1183,97 +1175,85 @@
       <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="1" ht="15.75" spans="1:9">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:10">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:9">
+      <c r="A3" t="s">
         <v>11</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:10">
-      <c r="A3" t="s">
-        <v>12</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:9">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="49.5" spans="1:9">
+      <c r="A5" t="s">
         <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:10">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" ht="49.5" spans="1:10">
-      <c r="A5" t="s">
-        <v>14</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1281,24 +1261,21 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="2:10">
+    </row>
+    <row r="6" customFormat="1" spans="2:9">
       <c r="B6" s="4">
         <v>1000</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4">
@@ -1312,14 +1289,13 @@
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="2:10">
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" s="4">
         <v>1001</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4">
@@ -1335,14 +1311,13 @@
         <v>1002</v>
       </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="2:10">
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" s="4">
         <v>1002</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4">
@@ -1356,14 +1331,13 @@
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="2:10">
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" s="4">
         <v>1003</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4">
@@ -1379,14 +1353,13 @@
         <v>1004</v>
       </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="2:10">
+    </row>
+    <row r="10" spans="2:9">
       <c r="B10" s="4">
         <v>1004</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4">
@@ -1400,14 +1373,13 @@
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="2:10">
+    </row>
+    <row r="11" spans="2:9">
       <c r="B11" s="4">
         <v>1005</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4">
@@ -1421,14 +1393,13 @@
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="2:10">
+    </row>
+    <row r="12" spans="2:9">
       <c r="B12" s="4">
         <v>1006</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4">
@@ -1442,14 +1413,13 @@
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="2:10">
+    </row>
+    <row r="13" spans="2:9">
       <c r="B13" s="4">
         <v>1007</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4">
@@ -1463,14 +1433,13 @@
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="2:10">
+    </row>
+    <row r="14" spans="2:9">
       <c r="B14" s="4">
         <v>1008</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4">
@@ -1484,14 +1453,13 @@
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="2:10">
+    </row>
+    <row r="15" spans="2:9">
       <c r="B15" s="4">
         <v>1009</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4">
@@ -1505,17 +1473,16 @@
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="2:10">
+    </row>
+    <row r="16" spans="2:9">
       <c r="B16" s="4">
         <v>1010</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -1528,17 +1495,16 @@
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="2:10">
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" s="4">
         <v>1011</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
@@ -1551,17 +1517,16 @@
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="2:10">
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18" s="4">
         <v>1012</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -1574,17 +1539,16 @@
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:10">
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19" s="4">
         <v>1013</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -1597,7 +1561,6 @@
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Packages/cn.etetet.wow/Luban/Datas/NumericType.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Datas/NumericType.xlsx
@@ -108,7 +108,7 @@
     <t>会影响对应的属性数值</t>
   </si>
   <si>
-    <t>Speed</t>
+    <t>力量</t>
   </si>
   <si>
     <t>HP</t>
@@ -1135,7 +1135,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>

--- a/Packages/cn.etetet.wow/Luban/Datas/NumericType.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Datas/NumericType.xlsx
@@ -108,7 +108,7 @@
     <t>会影响对应的属性数值</t>
   </si>
   <si>
-    <t>力量</t>
+    <t>Speed</t>
   </si>
   <si>
     <t>HP</t>
@@ -1135,7 +1135,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>

--- a/Packages/cn.etetet.wow/Luban/Datas/NumericType.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Datas/NumericType.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -1135,7 +1135,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>
@@ -1215,12 +1215,8 @@
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" t="s">

--- a/Packages/cn.etetet.wow/Luban/Datas/NumericType.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Datas/NumericType.xlsx
@@ -1135,7 +1135,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="I6" sqref="I6:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>

--- a/Packages/cn.etetet.wow/Luban/Datas/NumericType.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Datas/NumericType.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10511"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Datas/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65E2E02-C0C2-6048-B68F-4171CADA1227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32880" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NumericType" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>##var</t>
   </si>
@@ -90,6 +96,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>填对应的最大值Numeric</t>
@@ -99,6 +106,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> Id</t>
@@ -161,18 +169,20 @@
   <si>
     <t>眩晕</t>
   </si>
+  <si>
+    <t>出生朝向</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yaw</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,166 +195,40 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,194 +241,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -552,252 +250,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -811,64 +267,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1126,32 +538,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:I19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5044247787611" customWidth="1"/>
-    <col min="2" max="2" width="15.8761061946903" customWidth="1"/>
-    <col min="3" max="3" width="29.6283185840708" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="20.7522123893805" customWidth="1"/>
-    <col min="6" max="6" width="20.8761061946903" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="20.8761061946903" customWidth="1"/>
-    <col min="9" max="9" width="31.8053097345133" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="9" max="9" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:9">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1176,7 +588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.75" spans="1:9">
+    <row r="2" spans="1:9" ht="17">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1201,7 +613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:9">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1218,7 +630,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" customFormat="1" spans="1:9">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1247,7 +659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="49.5" spans="1:9">
+    <row r="5" spans="1:9" ht="60">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1266,7 +678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="2:9">
+    <row r="6" spans="1:9">
       <c r="B6" s="4">
         <v>1000</v>
       </c>
@@ -1286,7 +698,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="1:9">
       <c r="B7" s="4">
         <v>1001</v>
       </c>
@@ -1308,7 +720,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="1:9">
       <c r="B8" s="4">
         <v>1002</v>
       </c>
@@ -1328,7 +740,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="1:9">
       <c r="B9" s="4">
         <v>1003</v>
       </c>
@@ -1350,7 +762,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="1:9">
       <c r="B10" s="4">
         <v>1004</v>
       </c>
@@ -1370,7 +782,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="1:9">
       <c r="B11" s="4">
         <v>1005</v>
       </c>
@@ -1390,7 +802,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="1:9">
       <c r="B12" s="4">
         <v>1006</v>
       </c>
@@ -1410,7 +822,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="1:9">
       <c r="B13" s="4">
         <v>1007</v>
       </c>
@@ -1430,7 +842,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="1:9">
       <c r="B14" s="4">
         <v>1008</v>
       </c>
@@ -1450,7 +862,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="1:9">
       <c r="B15" s="4">
         <v>1009</v>
       </c>
@@ -1470,7 +882,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="1:9">
       <c r="B16" s="4">
         <v>1010</v>
       </c>
@@ -1558,9 +970,31 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="4">
+        <v>1014</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>